--- a/data/testcase_infos.xlsx
+++ b/data/testcase_infos.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -34,6 +34,9 @@
     <t>请求方式</t>
   </si>
   <si>
+    <t>请求头部信息</t>
+  </si>
+  <si>
     <t>请求地址</t>
   </si>
   <si>
@@ -43,6 +46,15 @@
     <t>请求参数(post)</t>
   </si>
   <si>
+    <t>取值方式</t>
+  </si>
+  <si>
+    <t>取值代码</t>
+  </si>
+  <si>
+    <t>取值变量</t>
+  </si>
+  <si>
     <t>api_case_01</t>
   </si>
   <si>
@@ -67,12 +79,21 @@
     <t>{"grant_type":"client_credential","appid":"wx55614004f367f8ca","secret":"65515b46dd758dfdb09420bb7db2c67f"}</t>
   </si>
   <si>
+    <t>jsonpath取值</t>
+  </si>
+  <si>
+    <t>$.access_token</t>
+  </si>
+  <si>
     <t>api_case_02</t>
   </si>
   <si>
     <t>创建标签接口测试</t>
   </si>
   <si>
+    <t>token</t>
+  </si>
+  <si>
     <t>step_02</t>
   </si>
   <si>
@@ -89,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve">{   "tag" : {     "name" : "广东" } } </t>
+  </si>
+  <si>
+    <t>正则取值</t>
   </si>
   <si>
     <t>api_case_03</t>
@@ -114,9 +138,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -129,21 +153,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,6 +182,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -172,19 +220,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,17 +251,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,39 +266,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,14 +291,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,31 +305,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,67 +437,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,79 +479,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,8 +502,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,6 +513,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,15 +543,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,6 +573,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -557,168 +596,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,10 +1075,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
@@ -1064,13 +1088,16 @@
     <col min="3" max="3" width="14.2767857142857" customWidth="1"/>
     <col min="4" max="4" width="13.3839285714286" customWidth="1"/>
     <col min="5" max="5" width="21.2767857142857" customWidth="1"/>
-    <col min="6" max="6" width="15.4732142857143" customWidth="1"/>
-    <col min="7" max="7" width="18.1517857142857" customWidth="1"/>
-    <col min="8" max="8" width="22.7589285714286" customWidth="1"/>
-    <col min="9" max="9" width="33.7767857142857" customWidth="1"/>
+    <col min="6" max="7" width="15.4732142857143" customWidth="1"/>
+    <col min="8" max="8" width="18.1517857142857" customWidth="1"/>
+    <col min="9" max="9" width="22.7589285714286" customWidth="1"/>
+    <col min="10" max="10" width="38.2410714285714" customWidth="1"/>
+    <col min="11" max="11" width="16.8125" customWidth="1"/>
+    <col min="12" max="12" width="14.1339285714286" customWidth="1"/>
+    <col min="13" max="13" width="14.7321428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1098,158 +1125,203 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I5" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
+      <c r="M5" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
         <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1259,6 +1331,11 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B7"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K7">
+      <formula1>"jsonpath取值,正则取值"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/data/testcase_infos.xlsx
+++ b/data/testcase_infos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -79,18 +79,21 @@
     <t>{"grant_type":"client_credential","appid":"wx55614004f367f8ca","secret":"65515b46dd758dfdb09420bb7db2c67f"}</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>api_case_02</t>
+  </si>
+  <si>
+    <t>创建标签接口测试</t>
+  </si>
+  <si>
     <t>jsonpath取值</t>
   </si>
   <si>
     <t>$.access_token</t>
   </si>
   <si>
-    <t>api_case_02</t>
-  </si>
-  <si>
-    <t>创建标签接口测试</t>
-  </si>
-  <si>
     <t>token</t>
   </si>
   <si>
@@ -112,13 +115,16 @@
     <t xml:space="preserve">{   "tag" : {     "name" : "广东" } } </t>
   </si>
   <si>
-    <t>正则取值</t>
-  </si>
-  <si>
     <t>api_case_03</t>
   </si>
   <si>
     <t>删除标签接口测试</t>
+  </si>
+  <si>
+    <t>$.tag.id</t>
+  </si>
+  <si>
+    <t>tag_id</t>
   </si>
   <si>
     <t>step_03</t>
@@ -159,18 +165,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,25 +196,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,6 +244,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -252,45 +289,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,19 +317,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,157 +473,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,15 +579,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -596,132 +593,141 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -730,19 +736,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1077,8 +1083,8 @@
   <sheetPr/>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
@@ -1090,7 +1096,7 @@
     <col min="5" max="5" width="21.2767857142857" customWidth="1"/>
     <col min="6" max="7" width="15.4732142857143" customWidth="1"/>
     <col min="8" max="8" width="18.1517857142857" customWidth="1"/>
-    <col min="9" max="9" width="22.7589285714286" customWidth="1"/>
+    <col min="9" max="9" width="31.2410714285714" customWidth="1"/>
     <col min="10" max="10" width="38.2410714285714" customWidth="1"/>
     <col min="11" max="11" width="16.8125" customWidth="1"/>
     <col min="12" max="12" width="14.1339285714286" customWidth="1"/>
@@ -1138,7 +1144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1165,17 +1171,14 @@
       </c>
       <c r="K2" t="s">
         <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -1196,13 +1199,13 @@
         <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1212,25 +1215,25 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1259,41 +1262,47 @@
         <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1303,25 +1312,25 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1332,8 +1341,8 @@
     <mergeCell ref="B5:B7"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K7">
-      <formula1>"jsonpath取值,正则取值"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K3 K4:K7">
+      <formula1>"无,jsonpath取值,正则取值"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/data/testcase_infos.xlsx
+++ b/data/testcase_infos.xlsx
@@ -1083,8 +1083,8 @@
   <sheetPr/>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
@@ -1096,7 +1096,7 @@
     <col min="5" max="5" width="21.2767857142857" customWidth="1"/>
     <col min="6" max="7" width="15.4732142857143" customWidth="1"/>
     <col min="8" max="8" width="18.1517857142857" customWidth="1"/>
-    <col min="9" max="9" width="31.2410714285714" customWidth="1"/>
+    <col min="9" max="9" width="36.0089285714286" customWidth="1"/>
     <col min="10" max="10" width="38.2410714285714" customWidth="1"/>
     <col min="11" max="11" width="16.8125" customWidth="1"/>
     <col min="12" max="12" width="14.1339285714286" customWidth="1"/>

--- a/data/testcase_infos.xlsx
+++ b/data/testcase_infos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -55,6 +55,12 @@
     <t>取值变量</t>
   </si>
   <si>
+    <t>断言类型</t>
+  </si>
+  <si>
+    <t>期望结果</t>
+  </si>
+  <si>
     <t>api_case_01</t>
   </si>
   <si>
@@ -82,46 +88,64 @@
     <t>无</t>
   </si>
   <si>
+    <t>json_key_value</t>
+  </si>
+  <si>
+    <t>{"expires_in":7200}</t>
+  </si>
+  <si>
     <t>api_case_02</t>
   </si>
   <si>
     <t>创建标签接口测试</t>
   </si>
   <si>
+    <t>正则取值</t>
+  </si>
+  <si>
+    <t>"access_token":"(.+?)"</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>step_02</t>
+  </si>
+  <si>
+    <t>创建标签接口</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>/cgi-bin/tags/create</t>
+  </si>
+  <si>
+    <t>{"access_token":${token}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{   "tag" : {     "name" : "广东" } } </t>
+  </si>
+  <si>
+    <t>json_key</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>api_case_03</t>
+  </si>
+  <si>
+    <t>删除标签接口测试</t>
+  </si>
+  <si>
     <t>jsonpath取值</t>
   </si>
   <si>
     <t>$.access_token</t>
   </si>
   <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>step_02</t>
-  </si>
-  <si>
-    <t>创建标签接口</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>/cgi-bin/tags/create</t>
-  </si>
-  <si>
-    <t>{"access_token":${token}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{   "tag" : {     "name" : "广东" } } </t>
-  </si>
-  <si>
-    <t>api_case_03</t>
-  </si>
-  <si>
-    <t>删除标签接口测试</t>
-  </si>
-  <si>
-    <t>$.tag.id</t>
+    <t>"id":(.+?),</t>
   </si>
   <si>
     <t>tag_id</t>
@@ -144,10 +168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -166,6 +190,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -173,10 +204,102 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,115 +311,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,25 +341,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,151 +515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,7 +533,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,22 +542,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,6 +562,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -568,13 +586,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,9 +618,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,148 +631,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,10 +1105,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
@@ -1097,13 +1121,15 @@
     <col min="6" max="7" width="15.4732142857143" customWidth="1"/>
     <col min="8" max="8" width="18.1517857142857" customWidth="1"/>
     <col min="9" max="9" width="36.0089285714286" customWidth="1"/>
-    <col min="10" max="10" width="38.2410714285714" customWidth="1"/>
+    <col min="10" max="10" width="43.9017857142857" customWidth="1"/>
     <col min="11" max="11" width="16.8125" customWidth="1"/>
-    <col min="12" max="12" width="14.1339285714286" customWidth="1"/>
+    <col min="12" max="12" width="22.9107142857143" customWidth="1"/>
     <col min="13" max="13" width="14.7321428571429" customWidth="1"/>
+    <col min="14" max="14" width="17.2589285714286" customWidth="1"/>
+    <col min="15" max="15" width="23.0625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1143,194 +1169,218 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:15">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" t="s">
-        <v>24</v>
-      </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1340,9 +1390,12 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B7"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K3 K4:K7">
       <formula1>"无,jsonpath取值,正则取值"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 N3 N4">
+      <formula1>"无,json_key,json_key_value,正则比对"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/data/testcase_infos.xlsx
+++ b/data/testcase_infos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -88,27 +88,30 @@
     <t>无</t>
   </si>
   <si>
+    <t>body_regexp</t>
+  </si>
+  <si>
+    <t>"access_token":"(.+?)"</t>
+  </si>
+  <si>
+    <t>api_case_02</t>
+  </si>
+  <si>
+    <t>创建标签接口测试</t>
+  </si>
+  <si>
+    <t>正则取值</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
     <t>json_key_value</t>
   </si>
   <si>
     <t>{"expires_in":7200}</t>
   </si>
   <si>
-    <t>api_case_02</t>
-  </si>
-  <si>
-    <t>创建标签接口测试</t>
-  </si>
-  <si>
-    <t>正则取值</t>
-  </si>
-  <si>
-    <t>"access_token":"(.+?)"</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
     <t>step_02</t>
   </si>
   <si>
@@ -145,12 +148,21 @@
     <t>$.access_token</t>
   </si>
   <si>
+    <t>access_token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{   "tag" : {     "name" : "p3p4testddd" } } </t>
+  </si>
+  <si>
     <t>"id":(.+?),</t>
   </si>
   <si>
     <t>tag_id</t>
   </si>
   <si>
+    <t>none</t>
+  </si>
+  <si>
     <t>step_03</t>
   </si>
   <si>
@@ -161,6 +173,9 @@
   </si>
   <si>
     <t>{   "tag":{        "id" : ${tag_id}   } }</t>
+  </si>
+  <si>
+    <t>{"errcode":0}</t>
   </si>
 </sst>
 </file>
@@ -168,9 +183,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -183,21 +198,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,121 +340,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -335,13 +350,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,43 +518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,121 +530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,8 +547,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,6 +558,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,15 +601,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -582,21 +612,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,124 +646,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,22 +772,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,14 +1122,14 @@
   <sheetPr/>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="17.1071428571429" customWidth="1"/>
-    <col min="2" max="2" width="24.4017857142857" customWidth="1"/>
+    <col min="2" max="2" width="31.6964285714286" customWidth="1"/>
     <col min="3" max="3" width="14.2767857142857" customWidth="1"/>
     <col min="4" max="4" width="13.3839285714286" customWidth="1"/>
     <col min="5" max="5" width="21.2767857142857" customWidth="1"/>
@@ -1240,16 +1255,16 @@
         <v>28</v>
       </c>
       <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
         <v>29</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>30</v>
       </c>
-      <c r="N3" t="s">
-        <v>24</v>
-      </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1259,39 +1274,39 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s">
         <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -1312,75 +1327,90 @@
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="N5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s">
         <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="N6" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K7" t="s">
         <v>23</v>
+      </c>
+      <c r="N7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1394,8 +1424,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K3 K4:K7">
       <formula1>"无,jsonpath取值,正则取值"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 N3 N4">
-      <formula1>"无,json_key,json_key_value,正则比对"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 N3 N4 N5:N7">
+      <formula1>"none,json_key,json_key_value,body_regexp,header_key,header_key_value,response_code"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/data/testcase_infos.xlsx
+++ b/data/testcase_infos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>创建标签接口测试</t>
+  </si>
+  <si>
+    <t>否</t>
   </si>
   <si>
     <t>正则取值</t>
@@ -791,15 +794,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1122,8 +1134,8 @@
   <sheetPr/>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
@@ -1192,16 +1204,16 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="s">
@@ -1227,16 +1239,16 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
@@ -1252,66 +1264,64 @@
         <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
         <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s">
         <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
@@ -1327,98 +1337,96 @@
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K7" t="s">
         <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K3 K4:K7">

--- a/data/testcase_infos.xlsx
+++ b/data/testcase_infos.xlsx
@@ -79,30 +79,33 @@
     <t>get</t>
   </si>
   <si>
+    <t>/cgi-bin/token123</t>
+  </si>
+  <si>
+    <t>{"grant_type":"client_credential","appid":"wx55614004f367f8ca","secret":"65515b46dd758dfdb09420bb7db2c67f"}</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>body_regexp</t>
+  </si>
+  <si>
+    <t>"access_token":"(.+?)"</t>
+  </si>
+  <si>
+    <t>api_case_02</t>
+  </si>
+  <si>
+    <t>创建标签接口测试</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
     <t>/cgi-bin/token</t>
   </si>
   <si>
-    <t>{"grant_type":"client_credential","appid":"wx55614004f367f8ca","secret":"65515b46dd758dfdb09420bb7db2c67f"}</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>body_regexp</t>
-  </si>
-  <si>
-    <t>"access_token":"(.+?)"</t>
-  </si>
-  <si>
-    <t>api_case_02</t>
-  </si>
-  <si>
-    <t>创建标签接口测试</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
     <t>正则取值</t>
   </si>
   <si>
@@ -161,9 +164,6 @@
   </si>
   <si>
     <t>tag_id</t>
-  </si>
-  <si>
-    <t>none</t>
   </si>
   <si>
     <t>step_03</t>
@@ -186,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -219,6 +219,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,8 +237,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -239,14 +315,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,82 +337,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -353,13 +353,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,13 +413,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,7 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,13 +467,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,43 +509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,67 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,17 +574,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,6 +616,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -633,176 +644,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1134,8 +1128,8 @@
   <sheetPr/>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
@@ -1239,13 +1233,13 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1258,67 +1252,67 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
         <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
         <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1331,66 +1325,66 @@
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
         <v>50</v>
       </c>
@@ -1398,13 +1392,13 @@
         <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
         <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
         <v>53</v>
@@ -1413,7 +1407,7 @@
         <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O7" t="s">
         <v>54</v>

--- a/data/testcase_infos.xlsx
+++ b/data/testcase_infos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -79,7 +79,7 @@
     <t>get</t>
   </si>
   <si>
-    <t>/cgi-bin/token123</t>
+    <t>/cgi-bin/token</t>
   </si>
   <si>
     <t>{"grant_type":"client_credential","appid":"wx55614004f367f8ca","secret":"65515b46dd758dfdb09420bb7db2c67f"}</t>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>/cgi-bin/token</t>
   </si>
   <si>
     <t>正则取值</t>
@@ -201,29 +198,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,97 +233,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -336,6 +241,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -343,6 +304,42 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -353,13 +350,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,169 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,20 +544,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,11 +570,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,17 +622,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,148 +646,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,8 +1125,8 @@
   <sheetPr/>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6"/>
@@ -1252,25 +1249,25 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
         <v>25</v>
       </c>
       <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
         <v>31</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>32</v>
-      </c>
-      <c r="O3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1278,39 +1275,39 @@
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>36</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>37</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>38</v>
-      </c>
-      <c r="J4" t="s">
-        <v>39</v>
       </c>
       <c r="K4" t="s">
         <v>23</v>
       </c>
       <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" t="s">
         <v>40</v>
-      </c>
-      <c r="O4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>28</v>
@@ -1325,25 +1322,25 @@
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
       <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" t="s">
         <v>44</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" t="s">
         <v>45</v>
-      </c>
-      <c r="M5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1351,34 +1348,34 @@
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>36</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>37</v>
       </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
       <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
         <v>47</v>
       </c>
-      <c r="K6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>48</v>
       </c>
-      <c r="M6" t="s">
-        <v>49</v>
-      </c>
       <c r="N6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1386,31 +1383,31 @@
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
         <v>51</v>
       </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
         <v>52</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" t="s">
-        <v>53</v>
       </c>
       <c r="K7" t="s">
         <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
